--- a/results/in_house/H1N1.xlsx
+++ b/results/in_house/H1N1.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>22</v>
